--- a/Schémas/Schémas controleur pan/Pièces Digikey v3.xlsx
+++ b/Schémas/Schémas controleur pan/Pièces Digikey v3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\PROJET MIWI\Schémas\Schémas controleur pan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\243-510-A18\Schémas\Schémas controleur pan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6FE8CF-51FF-4107-9483-7AD47E15410C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62E9A59-9BEF-42E7-A7E2-ED6D6B3C97CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
   <si>
     <t>Index</t>
   </si>
@@ -329,27 +329,25 @@
   </si>
   <si>
     <t>MOSFET N-CH 30V 1.2A SOT-23</t>
+  </si>
+  <si>
+    <t>batterie</t>
+  </si>
+  <si>
+    <t>2479-K</t>
+  </si>
+  <si>
+    <t>HOLDER BATTERY 3CELL AAA PC MNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -357,16 +355,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -390,30 +392,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="A27:B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -712,498 +717,530 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <v>885012207016</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9">
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
+    <row r="21" spans="1:7">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
+    <row r="25" spans="1:7">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
+    <row r="26" spans="1:7">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2479</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
